--- a/deployment/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\GP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="9300" windowWidth="22860" windowHeight="9720" tabRatio="377"/>
+    <workbookView xWindow="11580" yWindow="9300" windowWidth="22860" windowHeight="9720" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Ref Des</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>N00628</t>
+  </si>
+  <si>
+    <t>OL000125</t>
   </si>
 </sst>
 </file>
@@ -830,20 +833,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="11" width="15.77734375" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>39</v>
       </c>
@@ -893,7 +896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -945,15 +948,15 @@
         <v>41887</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
     </row>
@@ -972,24 +975,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="27" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1031,9 @@
       <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
       <c r="F3" s="6">
         <v>362</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1066,7 +1071,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
@@ -1096,7 +1101,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1131,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1156,7 +1161,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
@@ -1202,24 +1207,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>

--- a/deployment/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GP05MOAS-GL362_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="9300" windowWidth="22860" windowHeight="9720" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="11580" yWindow="9300" windowWidth="22860" windowHeight="9720" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$105</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$376</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -381,7 +376,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -420,9 +415,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -587,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,21 +825,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="31.5" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" ht="30">
+      <c r="A1" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -883,20 +877,20 @@
       <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="12" customFormat="1">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -915,7 +909,7 @@
       <c r="F2" s="15">
         <v>0</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>41886</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -924,13 +918,13 @@
       <c r="I2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16">
-        <v>0</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="J2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="11">
@@ -941,22 +935,22 @@
         <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
         <v>-144.80533333333332</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="16">
         <v>41881</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="16">
         <v>41887</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
     </row>
@@ -975,51 +969,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" s="26" customFormat="1" ht="28">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:12" s="6" customFormat="1">
+      <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
@@ -1041,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="6" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1060,10 +1054,10 @@
       <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>140</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -1071,14 +1065,14 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="6" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>362</v>
       </c>
       <c r="D5" s="9">
@@ -1087,13 +1081,13 @@
       <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>700</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -1101,14 +1095,14 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>362</v>
       </c>
       <c r="D6" s="9">
@@ -1117,13 +1111,13 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>1.0960000000000001</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -1131,14 +1125,14 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="6" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>362</v>
       </c>
       <c r="D7" s="9">
@@ -1147,13 +1141,13 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>3.9E-2</v>
       </c>
       <c r="I7" s="9" t="s">
@@ -1161,8 +1155,8 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:12" s="6" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
@@ -1184,8 +1178,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:12" s="6" customFormat="1">
+      <c r="A9" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -1207,24 +1201,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="6" customFormat="1">
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
